--- a/cypress/fixtures/Tasklist.xlsx
+++ b/cypress/fixtures/Tasklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_project\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AB9F6F-1195-458C-954D-F84677B6F5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68B067B-F13C-439F-8E13-B566F4375484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A06FB89-A33A-43F3-9C2E-3B32424992E7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6A06FB89-A33A-43F3-9C2E-3B32424992E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,22 +36,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Tasklist</t>
   </si>
   <si>
-    <t>Personal Task: Buy groceries</t>
+    <t>Personal Task: Buy groceries on Friday</t>
   </si>
   <si>
-    <t>Pick up dry cleaning</t>
+    <t>Pick up dry cleaning on Sunday</t>
+  </si>
+  <si>
+    <t>Pay Soham's Fee</t>
+  </si>
+  <si>
+    <t>Take Doctor's appointment</t>
+  </si>
+  <si>
+    <t>Book Travel ticket</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,12 +75,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,10 +112,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -450,30 +452,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41286D6-D16D-42A6-9AAA-9DF7298AAE7C}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="87" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
